--- a/Crawling/music/crawled_data/outlier_data/2022-05-09_2022-05-15/2022-05-09_2022-05-15_Top50_100_rank_change_df.xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-09_2022-05-15/2022-05-09_2022-05-15_Top50_100_rank_change_df.xlsx
@@ -94,10 +94,10 @@
     <t>아이유 (IU)</t>
   </si>
   <si>
+    <t>Bugs</t>
+  </si>
+  <si>
     <t>Flo</t>
-  </si>
-  <si>
-    <t>Bugs</t>
   </si>
   <si>
     <t>Genie</t>
@@ -492,7 +492,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>60.6</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -501,18 +501,18 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>2.300000000000004</v>
+        <v>6.699999999999989</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
       <c r="F2">
-        <v>58.3</v>
+        <v>68.90000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>75.59999999999999</v>
+        <v>60.6</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -521,13 +521,13 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>6.699999999999989</v>
+        <v>2.300000000000004</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3">
-        <v>68.90000000000001</v>
+        <v>58.3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -564,7 +564,7 @@
         <v>7.700000000000003</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5">
         <v>69</v>
@@ -584,7 +584,7 @@
         <v>11.7</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6">
         <v>81</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>53.8</v>
+        <v>85.2</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -601,18 +601,18 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>3.400000000000006</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
       </c>
       <c r="F7">
-        <v>53.8</v>
+        <v>81.8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>85.2</v>
+        <v>53.8</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -621,13 +621,13 @@
         <v>20</v>
       </c>
       <c r="D8">
-        <v>3.400000000000006</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
       </c>
       <c r="F8">
-        <v>81.8</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -664,7 +664,7 @@
         <v>-0.8999999999999915</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10">
         <v>82.59999999999999</v>
@@ -744,7 +744,7 @@
         <v>3.700000000000003</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F14">
         <v>76</v>
@@ -764,7 +764,7 @@
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15">
         <v>55.5</v>
@@ -784,7 +784,7 @@
         <v>2.299999999999997</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16">
         <v>79.7</v>
@@ -804,7 +804,7 @@
         <v>-15</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17">
         <v>96</v>
